--- a/Resultados/Escenario 5/L.xlsx
+++ b/Resultados/Escenario 5/L.xlsx
@@ -4366,7 +4366,7 @@
         <v>1</v>
       </c>
       <c r="E207" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
     </row>
     <row r="208">
@@ -4632,7 +4632,7 @@
         <v>1</v>
       </c>
       <c r="E221" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
